--- a/prac2/prac2handin_2024.xlsx
+++ b/prac2/prac2handin_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.bradshaw\Dropbox\CS Stuff\Compilers\pracs\prac2_24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prac2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F38E816C-5E44-488C-9882-305B9CA0D034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8C4760-E29D-47C3-8E25-A6A50B73EEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1224" windowWidth="16572" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="1065" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Size blank" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t xml:space="preserve">Sieve </t>
   </si>
@@ -95,6 +95,54 @@
   </si>
   <si>
     <t>COD</t>
+  </si>
+  <si>
+    <t>33 792</t>
+  </si>
+  <si>
+    <t>37 376</t>
+  </si>
+  <si>
+    <t>36 352</t>
+  </si>
+  <si>
+    <t>90 586</t>
+  </si>
+  <si>
+    <t>136 832</t>
+  </si>
+  <si>
+    <t>137 520</t>
+  </si>
+  <si>
+    <t>90 793</t>
+  </si>
+  <si>
+    <t>66 560</t>
+  </si>
+  <si>
+    <t>94 043</t>
+  </si>
+  <si>
+    <t>149 504</t>
+  </si>
+  <si>
+    <t>148 480</t>
+  </si>
+  <si>
+    <t>47 104</t>
+  </si>
+  <si>
+    <t>35 840</t>
+  </si>
+  <si>
+    <t>35 328</t>
+  </si>
+  <si>
+    <t>66 048</t>
+  </si>
+  <si>
+    <t>52 224</t>
   </si>
 </sst>
 </file>
@@ -134,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -224,11 +272,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -267,6 +326,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,19 +670,19 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -630,7 +692,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -650,7 +712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -660,11 +722,17 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -674,11 +742,17 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -688,11 +762,17 @@
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -702,11 +782,17 @@
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -716,11 +802,17 @@
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -730,14 +822,20 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3">
+        <v>257</v>
+      </c>
+      <c r="E8" s="3">
+        <v>907</v>
+      </c>
+      <c r="F8" s="3">
+        <v>603</v>
+      </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -747,11 +845,17 @@
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -768,13 +872,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>1</v>
       </c>
@@ -782,10 +886,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>2</v>
       </c>
@@ -793,10 +897,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
-    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -804,10 +908,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>4</v>
       </c>
@@ -815,7 +919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>5</v>
       </c>
